--- a/Edureka.xlsx
+++ b/Edureka.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/baisegowni-reddy-tejasree_t_capgemini_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="210" documentId="11_F25DC773A252ABDACC1048C2095F4BBE5ADE58FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C20516E-2B01-433C-A672-47795DBA06B5}"/>
+  <xr:revisionPtr revIDLastSave="537" documentId="11_F25DC773A252ABDACC1048C2095F4BBE5ADE58FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01DA2508-D192-44C9-BE97-6CF6EE573807}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="4620" yWindow="4620" windowWidth="14400" windowHeight="8170" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User Story" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="Defect Report" sheetId="4" r:id="rId4"/>
     <sheet name="RTM" sheetId="5" r:id="rId5"/>
     <sheet name="Summary" sheetId="6" r:id="rId6"/>
-    <sheet name="Summary report" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="231">
   <si>
     <t>Issue Type</t>
   </si>
@@ -332,11 +331,6 @@
     <t>Functional Testing</t>
   </si>
   <si>
-    <t>1. To validate that when website url is entered in the browser it opens the website.
-2. To validate that website is displyed correctly in all the browsers.
-3. To validate that user is able to perform the tasks on website in all kinds of browsers.</t>
-  </si>
-  <si>
     <t>TS_Edureka_HomePage_01</t>
   </si>
   <si>
@@ -463,12 +457,460 @@
   <si>
     <t>Sub Story4</t>
   </si>
+  <si>
+    <t>Sub Story5</t>
+  </si>
+  <si>
+    <t>Sub Story6</t>
+  </si>
+  <si>
+    <t>Sub Story7</t>
+  </si>
+  <si>
+    <t>As a Learner,I want to search the webinar by entering valid title and course,so that I can Enroll for webinar</t>
+  </si>
+  <si>
+    <t>As a Learner,I want to search for webinar by enetring invalid title and course,So that I can't enroll for webinar</t>
+  </si>
+  <si>
+    <t>DF_Edureka_HomePage_01</t>
+  </si>
+  <si>
+    <t>DF_LandingPage_01</t>
+  </si>
+  <si>
+    <t>Landing Page</t>
+  </si>
+  <si>
+    <t>Sign Up (Create Account)option is not available on landing page.</t>
+  </si>
+  <si>
+    <t>abc@capgemini.com</t>
+  </si>
+  <si>
+    <t>To do</t>
+  </si>
+  <si>
+    <t>Edureka Home Page</t>
+  </si>
+  <si>
+    <t>Blog-No error Message for invalid course name</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>TS_Edureka_HomePage_02</t>
+  </si>
+  <si>
+    <t>REQ_Edureka_HomePage_02</t>
+  </si>
+  <si>
+    <t>To Verify Resouces-Webinar Functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. To validate that when website url is entered in the browser it opens the website.
+2. To validate that website is displyed correctly in all the browsers.
+3. To validate that user is able to perform the tasks on website in all kinds of browsers.
+</t>
+  </si>
+  <si>
+    <t>TC_Edureka_HomePage_06</t>
+  </si>
+  <si>
+    <t>TC_Edureka_HomePage_07</t>
+  </si>
+  <si>
+    <t>TC_Edureka_HomePage_08</t>
+  </si>
+  <si>
+    <t>TC_Edureka_HomePage_09</t>
+  </si>
+  <si>
+    <t>TC_Edureka_HomePage_10</t>
+  </si>
+  <si>
+    <t>Validate Webinar option functionality</t>
+  </si>
+  <si>
+    <t>1.Click on Resources
+2.choose webinar option</t>
+  </si>
+  <si>
+    <t>Webinar page should open</t>
+  </si>
+  <si>
+    <t>opened webinar page</t>
+  </si>
+  <si>
+    <t>Webinar page open</t>
+  </si>
+  <si>
+    <t>1.Click on Resources
+2.choose webinar option
+3.Search webinar with valid title and course</t>
+  </si>
+  <si>
+    <t>Course=Generative AI</t>
+  </si>
+  <si>
+    <t>Webinar related to the searched title to be opened</t>
+  </si>
+  <si>
+    <t>opened the webinars of serached title and course</t>
+  </si>
+  <si>
+    <t>1.Click on Resources
+2.choose webinar option
+3.Search webinar with invalid title and course</t>
+  </si>
+  <si>
+    <t>Course=cloud computing</t>
+  </si>
+  <si>
+    <t>Message “No webinar available” should appear</t>
+  </si>
+  <si>
+    <t>validate search bar functionality</t>
+  </si>
+  <si>
+    <t>1.Click on Resources 
+2.choose webinar option
+3.Search webinar with valid title and course
+4.choose the webinar from the list
+5.click on the webinar</t>
+  </si>
+  <si>
+    <t>Webinar details has to be opened</t>
+  </si>
+  <si>
+    <t>opened webinar details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Click on Resources
+2.choose webinar option
+3.Search webinar with valid title and course
+4.choose the webinar from the list
+5.click on webinar
+6.click on Register button
+</t>
+  </si>
+  <si>
+    <t>validate choosing searched course functionality</t>
+  </si>
+  <si>
+    <t>Register Button has to be clicked</t>
+  </si>
+  <si>
+    <t>clicked on register button</t>
+  </si>
+  <si>
+    <t>TC_Edureka_HomePage_11</t>
+  </si>
+  <si>
+    <t>webinar page open</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate Register now </t>
+  </si>
+  <si>
+    <t>validate register form</t>
+  </si>
+  <si>
+    <t>Reserve your spot now form to be opened</t>
+  </si>
+  <si>
+    <t>opened Reserve your slot now form</t>
+  </si>
+  <si>
+    <t>DF_Edureka_HomePage_02</t>
+  </si>
+  <si>
+    <t>Edureka webinar Page</t>
+  </si>
+  <si>
+    <t>webinar-“No webinar available” should appear</t>
+  </si>
+  <si>
+    <t>TC_Edureka_HomePage_12</t>
+  </si>
+  <si>
+    <t>TC_Edureka_HomePage_13</t>
+  </si>
+  <si>
+    <t>TC_Edureka_HomePage_14</t>
+  </si>
+  <si>
+    <t>TC_Edureka_HomePage_15</t>
+  </si>
+  <si>
+    <t>TS_Edureka_HomePage_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Click on Resources
+2.choose webinar option
+3.Search webinar with valid title and course
+4.choose the webinar from the list
+5.click on webinar
+6.click on register button
+7.Reserve spot form 
+</t>
+  </si>
+  <si>
+    <t>validate reserve your spot form with valid details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Click on Resources
+2.choose webinar option
+3.Search webinar with valid title and course
+4.choose the webinar from the list
+5.click on webinar
+6.click on Register button
+7.Reserve spot Form
+8.Enter valid mail ID
+9.choose profession
+10.Enter valid Phone number
+11.Check box for further updates
+12.click on submit
+</t>
+  </si>
+  <si>
+    <t>Mail Id:abc@gmail.com
+Profession:student
+mobile no:9876543210</t>
+  </si>
+  <si>
+    <t>It should display registered</t>
+  </si>
+  <si>
+    <t>Displayed Rgistered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Click on Resources
+2.choose webinar option
+3.Search webinar with valid title and course
+4.choose the webinar from the list
+5.click on webinar
+6.click on Register button
+7.Reserve spot Form
+8.Enter valid mail ID
+9.choose profession
+10.Enter invalid Phone number
+11.Check box for further updates
+12.click on submit
+</t>
+  </si>
+  <si>
+    <t>Mail Id:abc@gmail.com
+Profession:student
+mobile no:987654321a</t>
+  </si>
+  <si>
+    <t>It should display invalid phone number</t>
+  </si>
+  <si>
+    <t>displayed invalid phone number</t>
+  </si>
+  <si>
+    <t>As a Learner,I want to choose the webinar and register for webinar</t>
+  </si>
+  <si>
+    <t>As a Learner,I want to enter valid details in the form,so that I can Register for webinar</t>
+  </si>
+  <si>
+    <t>As a Learner,I want to enter invalid details in the form,so that I cann't Register for webinar</t>
+  </si>
+  <si>
+    <t>Sub Story8</t>
+  </si>
+  <si>
+    <t>Sub Story9</t>
+  </si>
+  <si>
+    <t>Sub Story10</t>
+  </si>
+  <si>
+    <t>Sub Story11</t>
+  </si>
+  <si>
+    <t>Sub Story12</t>
+  </si>
+  <si>
+    <t>Sub Story13</t>
+  </si>
+  <si>
+    <t>As a Learner,I want to join in a community,so that I click on community</t>
+  </si>
+  <si>
+    <t>To Verify Resources-Community Functionality</t>
+  </si>
+  <si>
+    <t>validate reserve your spot form with invalid details</t>
+  </si>
+  <si>
+    <t>Validate community option functionality</t>
+  </si>
+  <si>
+    <t>It should open community page</t>
+  </si>
+  <si>
+    <t>opened community page</t>
+  </si>
+  <si>
+    <t>Community page open</t>
+  </si>
+  <si>
+    <t>Validate Community page search functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Click on Resources
+2.choose webinar option
+3.Search with Technology, Category or Keyword </t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>It should display trending questions in edureka community</t>
+  </si>
+  <si>
+    <t>Displayed trending questions related to the entered keyword in edureka community</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a Learner,I want to search for community related to the  Technology, Category or Keyword  </t>
+  </si>
+  <si>
+    <t>As a Learner,I want to ask a question related to the course ,so that I am clear in subject</t>
+  </si>
+  <si>
+    <t>TC_Edureka_HomePage_16</t>
+  </si>
+  <si>
+    <t>TC_Edureka_HomePage_17</t>
+  </si>
+  <si>
+    <t>Validate Ask a question functionality</t>
+  </si>
+  <si>
+    <t>1.Click on Resources
+2.choose webinar option
+3.Search with Technology, Category or Keyword 
+4.Click on Ask a question button
+5.Click on signUp to Ask a question
+6.Enter valid details to signUp</t>
+  </si>
+  <si>
+    <t>1.To Validate Resources functionality,Click on Resources
+2.To validate the functionality,Click on Community
+3.To validate the functionality,search with  Technology, Category or Keyword 
+4.To validate ask a question button
+5.To validate ask a question functionality,click on signUP
+6.To validate signUp,enter valid details</t>
+  </si>
+  <si>
+    <t>BR_Edureka_01</t>
+  </si>
+  <si>
+    <t>TR_Edureka_01</t>
+  </si>
+  <si>
+    <t>REQ_Edureka_HomePage_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Click on Resources
+2.choose webinar option
+3.Search with Technology, Category or Keyword 
+4.Click on Ask a question button
+</t>
+  </si>
+  <si>
+    <t>It should display please signUp or Login To ask a question</t>
+  </si>
+  <si>
+    <t>displayed please signUp or Login To ask a question</t>
+  </si>
+  <si>
+    <t>It should display ask a question page</t>
+  </si>
+  <si>
+    <t>Displayed ask a question page</t>
+  </si>
+  <si>
+    <t>TC_Edureka_HomePage_18</t>
+  </si>
+  <si>
+    <t>1.Click on Resources
+2.choose community option</t>
+  </si>
+  <si>
+    <t>1.To validate Resources Functionality,click on Resources
+2.To validate the functionality,Click on Webinars
+3.To validate the webinar functionality,search for webinar by entering valid title and course 
+4.To validate the webinar functionality,search for webinar by entering invalid title and course
+5.To validate the webinar functionality,click on Register Now button
+6.To validate the webinar functionality,enter valid mail ID,profession and valid phone number
+7.To validate the webinar functionality,enter mail Id ,profession and Invalid phone number
+8.To validate the webinar functionality,click on submit button</t>
+  </si>
+  <si>
+    <t>Validate signup with invalid details</t>
+  </si>
+  <si>
+    <t>Validate signUp with valid details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tejasree
+tejasree1234@gmail.com
+Teju@1234
+</t>
+  </si>
+  <si>
+    <t>1.Click on Resources
+2.choose webinar option
+3.Search with Technology, Category or Keyword 
+4.Click on Ask a question button
+5.Click on signUp to Ask a question
+6.Enter invalid details to signUp</t>
+  </si>
+  <si>
+    <t>It should display enter valid mail ID</t>
+  </si>
+  <si>
+    <t>Displayed Error message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tejasree
+tejasree#gmail.com
+Teju@1234
+</t>
+  </si>
+  <si>
+    <t>BR_Edureka_02</t>
+  </si>
+  <si>
+    <t>TR_Edureka_02</t>
+  </si>
+  <si>
+    <t>TR_Edureka_03</t>
+  </si>
+  <si>
+    <t>BR_Edureka_03</t>
+  </si>
+  <si>
+    <t>Edureka</t>
+  </si>
+  <si>
+    <t>Resources</t>
+  </si>
+  <si>
+    <t>As a Learner,I want to signUp to ask a question</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -600,8 +1042,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -623,12 +1073,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFD966"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,6 +1103,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,11 +1210,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -772,52 +1229,49 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -843,17 +1297,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{5E9FDC9E-2F30-4329-825B-B9057A654512}"/>
   </cellStyles>
@@ -1137,16 +1616,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="11.7265625" customWidth="1"/>
-    <col min="2" max="2" width="81.90625" customWidth="1"/>
+    <col min="2" max="2" width="91.453125" customWidth="1"/>
     <col min="3" max="3" width="85.54296875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1173,18 +1652,18 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="46" customHeight="1" thickBot="1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="A4" s="39" t="s">
         <v>58</v>
       </c>
       <c r="B4" t="s">
@@ -1192,7 +1671,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="A5" s="39" t="s">
         <v>61</v>
       </c>
       <c r="B5" t="s">
@@ -1200,7 +1679,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="A6" s="39" t="s">
         <v>64</v>
       </c>
       <c r="B6" t="s">
@@ -1208,107 +1687,226 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>111</v>
+      <c r="A7" s="39" t="s">
+        <v>110</v>
       </c>
       <c r="B7" t="s">
         <v>66</v>
       </c>
     </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="B11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="B14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="B16" t="s">
+        <v>230</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FBD8FA9-2543-42B9-87A5-ECD4250D3D2B}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView zoomScale="77" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="61" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="23.36328125" customWidth="1"/>
     <col min="2" max="2" width="25.26953125" customWidth="1"/>
-    <col min="3" max="3" width="28.36328125" customWidth="1"/>
+    <col min="3" max="3" width="41.6328125" customWidth="1"/>
     <col min="4" max="4" width="18.1796875" customWidth="1"/>
     <col min="5" max="5" width="19.36328125" customWidth="1"/>
-    <col min="6" max="6" width="47.1796875" customWidth="1"/>
+    <col min="6" max="6" width="62.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" ht="29">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:6" s="6" customFormat="1" ht="29">
+      <c r="A1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="28" customFormat="1" ht="72" customHeight="1">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:6" s="27" customFormat="1" ht="72" customHeight="1">
+      <c r="A2" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="25">
         <v>3</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="130.5">
+      <c r="A3" s="28" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="145">
-      <c r="A3" s="29" t="s">
+      <c r="B3" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="C3" t="s">
         <v>73</v>
-      </c>
-      <c r="C3" t="s">
-        <v>74</v>
       </c>
       <c r="D3" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="30">
         <v>5</v>
       </c>
-      <c r="F3" s="30" t="s">
-        <v>75</v>
+      <c r="F3" s="29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="174">
+      <c r="A4" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="30">
+        <v>8</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="101.5">
+      <c r="A5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="30">
+        <v>5</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="F6">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE416EF-7066-4023-BE56-FE9D02972609}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView zoomScale="60" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1316,11 +1914,11 @@
     <col min="1" max="1" width="36.08984375" customWidth="1"/>
     <col min="2" max="2" width="50.08984375" customWidth="1"/>
     <col min="3" max="3" width="34.1796875" customWidth="1"/>
-    <col min="4" max="4" width="37.08984375" customWidth="1"/>
+    <col min="4" max="4" width="43.08984375" customWidth="1"/>
     <col min="5" max="5" width="58.90625" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
     <col min="7" max="7" width="50" customWidth="1"/>
-    <col min="8" max="8" width="40.6328125" customWidth="1"/>
+    <col min="8" max="8" width="71.81640625" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
     <col min="10" max="10" width="14.453125" customWidth="1"/>
     <col min="11" max="11" width="15.1796875" customWidth="1"/>
@@ -1329,226 +1927,976 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="87" customHeight="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="51" customHeight="1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="17"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="16"/>
     </row>
     <row r="3" spans="1:13" ht="19" customHeight="1">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>72</v>
+      <c r="D3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="29">
+      <c r="A5" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="29">
+      <c r="A7" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" t="s">
+        <v>109</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="29">
+      <c r="A8" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" t="s">
+        <v>136</v>
+      </c>
+      <c r="H8" t="s">
+        <v>137</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="43.5">
+      <c r="A9" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="F9" t="s">
+        <v>140</v>
+      </c>
+      <c r="G9" t="s">
+        <v>141</v>
+      </c>
+      <c r="H9" t="s">
+        <v>142</v>
+      </c>
+      <c r="I9" s="31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="43.5">
+      <c r="A10" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="F10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H10" t="s">
+        <v>100</v>
+      </c>
+      <c r="I10" s="32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="72.5">
+      <c r="A11" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="F11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G11" t="s">
+        <v>148</v>
+      </c>
+      <c r="H11" t="s">
+        <v>149</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="101.5">
+      <c r="A12" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="F12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" t="s">
+        <v>152</v>
+      </c>
+      <c r="H12" t="s">
+        <v>153</v>
+      </c>
+      <c r="I12" s="31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="116">
+      <c r="A13" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="F13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" t="s">
+        <v>158</v>
+      </c>
+      <c r="H13" t="s">
+        <v>159</v>
+      </c>
+      <c r="I13" s="31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="188.5">
+      <c r="A14" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="B14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" t="s">
+        <v>169</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="G14" t="s">
+        <v>172</v>
+      </c>
+      <c r="H14" t="s">
+        <v>173</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="188.5">
+      <c r="A15" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" t="s">
+        <v>189</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="G15" t="s">
+        <v>176</v>
+      </c>
+      <c r="H15" t="s">
+        <v>177</v>
+      </c>
+      <c r="I15" s="31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="29">
+      <c r="A16" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="B16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" t="s">
+        <v>190</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="F16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" t="s">
+        <v>191</v>
+      </c>
+      <c r="H16" t="s">
+        <v>192</v>
+      </c>
+      <c r="I16" s="31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="43.5">
+      <c r="A17" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="B17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17" t="s">
+        <v>193</v>
+      </c>
+      <c r="D17" t="s">
+        <v>194</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="F17" t="s">
+        <v>196</v>
+      </c>
+      <c r="G17" t="s">
+        <v>197</v>
+      </c>
+      <c r="H17" t="s">
+        <v>198</v>
+      </c>
+      <c r="I17" s="31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="72.5">
+      <c r="A18" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="B18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18" t="s">
+        <v>193</v>
+      </c>
+      <c r="D18" t="s">
+        <v>203</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="F18" t="s">
+        <v>196</v>
+      </c>
+      <c r="G18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H18" t="s">
+        <v>211</v>
+      </c>
+      <c r="I18" s="31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="87">
+      <c r="A19" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="B19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" t="s">
+        <v>193</v>
+      </c>
+      <c r="D19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="G19" t="s">
+        <v>212</v>
+      </c>
+      <c r="H19" t="s">
+        <v>213</v>
+      </c>
+      <c r="I19" s="31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="87">
+      <c r="A20" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="B20" t="s">
+        <v>167</v>
+      </c>
+      <c r="C20" t="s">
+        <v>193</v>
+      </c>
+      <c r="D20" t="s">
+        <v>217</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="G20" t="s">
+        <v>221</v>
+      </c>
+      <c r="H20" t="s">
+        <v>222</v>
+      </c>
+      <c r="I20" s="31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F19" r:id="rId1" display="tejasree1234@gmail.com_x000a_" xr:uid="{58236ACB-0F62-4F19-B410-7E38C2722CF4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B77ECF1-AD2C-4F87-9272-3D22D3855431}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="24.08984375" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" customWidth="1"/>
+    <col min="3" max="3" width="40.1796875" customWidth="1"/>
+    <col min="4" max="4" width="16.08984375" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="70" customHeight="1">
+      <c r="A2" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" t="s">
+        <v>122</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{826814F8-D3B1-4C3F-90B2-663AF57F5DFD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AFD5AC0-7436-4528-BC2C-5B3D5EC2C01B}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="19.54296875" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="24.6328125" customWidth="1"/>
+    <col min="4" max="4" width="25.08984375" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="24.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="D3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" t="s">
         <v>79</v>
       </c>
-      <c r="F3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H3" t="s">
-        <v>82</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" t="s">
-        <v>84</v>
-      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="D4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4" t="s">
-        <v>86</v>
+        <v>95</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>82</v>
       </c>
       <c r="F4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H4" t="s">
-        <v>88</v>
-      </c>
-      <c r="I4" s="33" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="29">
-      <c r="A5" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" t="s">
-        <v>91</v>
-      </c>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="D5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>93</v>
+        <v>102</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>101</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
-      </c>
-      <c r="G5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H5" t="s">
-        <v>95</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="D6" t="s">
         <v>103</v>
       </c>
-      <c r="B6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" t="s">
-        <v>98</v>
+      <c r="E6" s="31" t="s">
+        <v>82</v>
       </c>
       <c r="F6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G6" t="s">
-        <v>100</v>
-      </c>
-      <c r="H6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="D8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="D9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="I6" s="34" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="29">
-      <c r="A7" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="B7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="F7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H7" t="s">
-        <v>110</v>
-      </c>
-      <c r="I7" s="33" t="s">
-        <v>83</v>
+      <c r="F9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="D10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="D11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="D12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="D13" t="s">
+        <v>163</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="D14" t="s">
+        <v>164</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>227</v>
+      </c>
+      <c r="B15" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="D16" t="s">
+        <v>166</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6">
+      <c r="D17" t="s">
+        <v>201</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6">
+      <c r="D18" t="s">
+        <v>202</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6">
+      <c r="D19" t="s">
+        <v>214</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1557,97 +2905,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B77ECF1-AD2C-4F87-9272-3D22D3855431}">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="13.1796875" customWidth="1"/>
-    <col min="2" max="2" width="15.08984375" customWidth="1"/>
-    <col min="3" max="3" width="16.6328125" customWidth="1"/>
-    <col min="4" max="4" width="16.08984375" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AFD5AC0-7436-4528-BC2C-5B3D5EC2C01B}">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="10.1796875" customWidth="1"/>
-    <col min="2" max="2" width="13.36328125" customWidth="1"/>
-    <col min="3" max="3" width="15.26953125" customWidth="1"/>
-    <col min="4" max="4" width="10.90625" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{880E42B8-D9C9-43AD-A434-59B69B74DD66}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1664,45 +2927,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="21" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>18</v>
+      </c>
+      <c r="G3" s="43">
+        <v>0.88880000000000003</v>
+      </c>
+      <c r="H3" s="43">
+        <v>0.1111</v>
+      </c>
+      <c r="I3" s="42">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1711,16 +3003,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D27EDE46-9BCB-42A2-BB20-181BA33D2563}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>